--- a/Code/Results/Cases/Case_3_186/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_186/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.502895403494506</v>
+        <v>0.996049335404507</v>
       </c>
       <c r="C2">
-        <v>0.5915966015578817</v>
+        <v>0.1829687567014275</v>
       </c>
       <c r="D2">
-        <v>0.08930651183741389</v>
+        <v>0.1878679431105965</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.326938355979848</v>
+        <v>1.765463493389589</v>
       </c>
       <c r="G2">
-        <v>1.029946273407745</v>
+        <v>1.093982151336363</v>
       </c>
       <c r="H2">
-        <v>0.6409241744430574</v>
+        <v>1.054649141061986</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1393273778441682</v>
+        <v>0.2575401434904663</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7380976559451682</v>
+        <v>0.4394676603794849</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.16744939426161</v>
+        <v>0.9012017778810559</v>
       </c>
       <c r="C3">
-        <v>0.5150218580524779</v>
+        <v>0.1600504625861845</v>
       </c>
       <c r="D3">
-        <v>0.08220848549033377</v>
+        <v>0.1866206637211718</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.234381174551046</v>
+        <v>1.757592780051567</v>
       </c>
       <c r="G3">
-        <v>0.945986726132773</v>
+        <v>1.083478378094483</v>
       </c>
       <c r="H3">
-        <v>0.6114040039648927</v>
+        <v>1.056222366358327</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1327019226399528</v>
+        <v>0.2577735803831658</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6417778632645366</v>
+        <v>0.4143720984839732</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.963022388727438</v>
+        <v>0.8432139183692016</v>
       </c>
       <c r="C4">
-        <v>0.4682331424980077</v>
+        <v>0.1459627490864364</v>
       </c>
       <c r="D4">
-        <v>0.07791061822357648</v>
+        <v>0.1859009606257871</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.180832187854577</v>
+        <v>1.753975854694346</v>
       </c>
       <c r="G4">
-        <v>0.8973712944688543</v>
+        <v>1.077945592247332</v>
       </c>
       <c r="H4">
-        <v>0.5948980178690277</v>
+        <v>1.05784645235471</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.128909686471232</v>
+        <v>0.2580473444133418</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5832412360057333</v>
+        <v>0.3991453431329219</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.880036193845996</v>
+        <v>0.8196463723957379</v>
       </c>
       <c r="C5">
-        <v>0.4492096466529745</v>
+        <v>0.1402180414634984</v>
       </c>
       <c r="D5">
-        <v>0.07617316948871178</v>
+        <v>0.1856193327121929</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.159772858010996</v>
+        <v>1.752806690648669</v>
       </c>
       <c r="G5">
-        <v>0.8782377603190099</v>
+        <v>1.075920273241223</v>
       </c>
       <c r="H5">
-        <v>0.5885509819873533</v>
+        <v>1.058673376029972</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1274291425658021</v>
+        <v>0.2581916641827746</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5595179315022563</v>
+        <v>0.3929861922182809</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.866273822641205</v>
+        <v>0.8157368148755779</v>
       </c>
       <c r="C6">
-        <v>0.4460530311372963</v>
+        <v>0.1392639082839366</v>
       </c>
       <c r="D6">
-        <v>0.07588547753532993</v>
+        <v>0.1855732743477461</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.156320259805781</v>
+        <v>1.7526309312602</v>
       </c>
       <c r="G6">
-        <v>0.8750998868018343</v>
+        <v>1.075597788454772</v>
       </c>
       <c r="H6">
-        <v>0.5875191893344578</v>
+        <v>1.058820645930936</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.127187087915722</v>
+        <v>0.2582176057653456</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5555860116206048</v>
+        <v>0.39196624391478</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.961901999665088</v>
+        <v>0.8428958226820669</v>
       </c>
       <c r="C7">
-        <v>0.4679764276304752</v>
+        <v>0.1458852893734388</v>
       </c>
       <c r="D7">
-        <v>0.07788713135701641</v>
+        <v>0.1858971152181255</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.180545167645931</v>
+        <v>1.753958854224948</v>
       </c>
       <c r="G7">
-        <v>0.8971105862348594</v>
+        <v>1.077917351034927</v>
       </c>
       <c r="H7">
-        <v>0.5948109193187889</v>
+        <v>1.057856936602221</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1288894626354633</v>
+        <v>0.2580491581737192</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5829207921340611</v>
+        <v>0.3990620927772</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.386872134759415</v>
+        <v>0.9632944265005676</v>
       </c>
       <c r="C8">
-        <v>0.5651372990100185</v>
+        <v>0.1750698690751449</v>
       </c>
       <c r="D8">
-        <v>0.08684582667257246</v>
+        <v>0.1874283397786911</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.294304313735324</v>
+        <v>1.762496773407918</v>
       </c>
       <c r="G8">
-        <v>1.000349754793518</v>
+        <v>1.090169520924206</v>
       </c>
       <c r="H8">
-        <v>0.6303920262505045</v>
+        <v>1.055054756652325</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1369828427636079</v>
+        <v>0.2575935366278728</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7047480025305433</v>
+        <v>0.4307769845183032</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.235796253428418</v>
+        <v>1.201367543761194</v>
       </c>
       <c r="C9">
-        <v>0.7581924734630263</v>
+        <v>0.2321733053422008</v>
       </c>
       <c r="D9">
-        <v>0.1049533401994864</v>
+        <v>0.1907948997231728</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.546511633145016</v>
+        <v>1.788931703733311</v>
       </c>
       <c r="G9">
-        <v>1.229078966453784</v>
+        <v>1.12152293348305</v>
       </c>
       <c r="H9">
-        <v>0.7143906092399845</v>
+        <v>1.054800549551487</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1552652665410861</v>
+        <v>0.2577370685218838</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9494917218545709</v>
+        <v>0.4944133442555199</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.874178843433981</v>
+        <v>1.377497620503902</v>
       </c>
       <c r="C10">
-        <v>0.9026741502711104</v>
+        <v>0.2740512108289295</v>
       </c>
       <c r="D10">
-        <v>0.1186803982217555</v>
+        <v>0.1934875938347034</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.75429512608946</v>
+        <v>1.814330436216977</v>
       </c>
       <c r="G10">
-        <v>1.417712945213196</v>
+        <v>1.149104206321567</v>
       </c>
       <c r="H10">
-        <v>0.7868810116635245</v>
+        <v>1.057836773893229</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1705084610498417</v>
+        <v>0.2584780024960978</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.13448521744516</v>
+        <v>0.5420518457471104</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.169089438930371</v>
+        <v>1.457893145323396</v>
       </c>
       <c r="C11">
-        <v>0.9692569005084692</v>
+        <v>0.2930868018417243</v>
       </c>
       <c r="D11">
-        <v>0.1250409888450292</v>
+        <v>0.1947596920133208</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.854890390644698</v>
+        <v>1.827197921082387</v>
       </c>
       <c r="G11">
-        <v>1.509144062949446</v>
+        <v>1.162656067776538</v>
       </c>
       <c r="H11">
-        <v>0.822727581056796</v>
+        <v>1.059924053698467</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1779216563550605</v>
+        <v>0.2589538081555887</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.220175565742835</v>
+        <v>0.5639174779473706</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.281534422514937</v>
+        <v>1.488376124515923</v>
       </c>
       <c r="C12">
-        <v>0.9946195964291178</v>
+        <v>0.3002929185513779</v>
       </c>
       <c r="D12">
-        <v>0.1274684885039505</v>
+        <v>0.195248138777373</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.893968085895267</v>
+        <v>1.832260514456195</v>
       </c>
       <c r="G12">
-        <v>1.544682794937671</v>
+        <v>1.167933649102338</v>
       </c>
       <c r="H12">
-        <v>0.8367643133319973</v>
+        <v>1.060816462066015</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1808057315421934</v>
+        <v>0.2591539902977402</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.252883126144226</v>
+        <v>0.5722254263587132</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.25728112707526</v>
+        <v>1.481809342697886</v>
       </c>
       <c r="C13">
-        <v>0.9891502017967468</v>
+        <v>0.298741054053977</v>
       </c>
       <c r="D13">
-        <v>0.126944805746092</v>
+        <v>0.1951426445137372</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.885506318298681</v>
+        <v>1.831161728786725</v>
       </c>
       <c r="G13">
-        <v>1.536986322015281</v>
+        <v>1.166790523464812</v>
       </c>
       <c r="H13">
-        <v>0.8337198344917454</v>
+        <v>1.060619721985603</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1801810394370165</v>
+        <v>0.2591099869248197</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.245826827127942</v>
+        <v>0.5704349210151634</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.178324209461323</v>
+        <v>1.460400219771884</v>
       </c>
       <c r="C14">
-        <v>0.9713403539203114</v>
+        <v>0.2936796990651658</v>
       </c>
       <c r="D14">
-        <v>0.1252403088665375</v>
+        <v>0.1947997422303018</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.858084925500705</v>
+        <v>1.827610610478573</v>
       </c>
       <c r="G14">
-        <v>1.512048843567669</v>
+        <v>1.163087328537841</v>
       </c>
       <c r="H14">
-        <v>0.8238728194351665</v>
+        <v>1.059995425743438</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1781573417215228</v>
+        <v>0.2589698760299441</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.222861025434824</v>
+        <v>0.5646004189825504</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.130064740552598</v>
+        <v>1.447291575443217</v>
       </c>
       <c r="C15">
-        <v>0.9604515674294873</v>
+        <v>0.2905791770464532</v>
       </c>
       <c r="D15">
-        <v>0.1241987834436031</v>
+        <v>0.1945905796591774</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.841420244135918</v>
+        <v>1.82546021801204</v>
       </c>
       <c r="G15">
-        <v>1.496896573502312</v>
+        <v>1.160838037968375</v>
       </c>
       <c r="H15">
-        <v>0.8179030280707025</v>
+        <v>1.059626323671722</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1769280296316751</v>
+        <v>0.2588866608578471</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.20882865955474</v>
+        <v>0.5610302501912372</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.855006447340145</v>
+        <v>1.372249050133348</v>
       </c>
       <c r="C16">
-        <v>0.8983422151080447</v>
+        <v>0.2728068813363507</v>
       </c>
       <c r="D16">
-        <v>0.1182672362714001</v>
+        <v>0.1934054039881659</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.747852422801785</v>
+        <v>1.813516038497994</v>
       </c>
       <c r="G16">
-        <v>1.411859728230525</v>
+        <v>1.148238891781233</v>
       </c>
       <c r="H16">
-        <v>0.7846002328203667</v>
+        <v>1.057714613325118</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.170034292391712</v>
+        <v>0.258449703987587</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.128919180281315</v>
+        <v>0.5406267848281061</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.687503194016585</v>
+        <v>1.326282590008532</v>
       </c>
       <c r="C17">
-        <v>0.8604772781496024</v>
+        <v>0.2619002633106788</v>
       </c>
       <c r="D17">
-        <v>0.1146596393765407</v>
+        <v>0.192690382297755</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.692082433843538</v>
+        <v>1.806525850451777</v>
       </c>
       <c r="G17">
-        <v>1.361204766051628</v>
+        <v>1.14076802954591</v>
       </c>
       <c r="H17">
-        <v>0.7649388390828165</v>
+        <v>1.056723017644117</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1659332994145331</v>
+        <v>0.2582172198235853</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.080316172716351</v>
+        <v>0.5281597117199013</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.591576020393745</v>
+        <v>1.299869618627326</v>
       </c>
       <c r="C18">
-        <v>0.8387773404201084</v>
+        <v>0.2556256707910336</v>
       </c>
       <c r="D18">
-        <v>0.1125954267363554</v>
+        <v>0.1922835644952201</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.660569346541493</v>
+        <v>1.802628844740028</v>
       </c>
       <c r="G18">
-        <v>1.332591305557031</v>
+        <v>1.136565506798746</v>
       </c>
       <c r="H18">
-        <v>0.7538970127513949</v>
+        <v>1.05621911018531</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1636190752787172</v>
+        <v>0.2580965578075691</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.052503087900391</v>
+        <v>0.5210073057445541</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.559164760254475</v>
+        <v>1.29093106830868</v>
       </c>
       <c r="C19">
-        <v>0.8314429342997016</v>
+        <v>0.2535009655327372</v>
       </c>
       <c r="D19">
-        <v>0.1118983087126111</v>
+        <v>0.1921465878391828</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.649993292980085</v>
+        <v>1.801330575224455</v>
       </c>
       <c r="G19">
-        <v>1.322989837082446</v>
+        <v>1.135158800067671</v>
       </c>
       <c r="H19">
-        <v>0.750202853430352</v>
+        <v>1.056059891381494</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1628429424535511</v>
+        <v>0.2580579446331654</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.043109377466919</v>
+        <v>0.5185887738424313</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.705290287619505</v>
+        <v>1.331173138610666</v>
       </c>
       <c r="C20">
-        <v>0.8644997132587093</v>
+        <v>0.2630614365266126</v>
       </c>
       <c r="D20">
-        <v>0.115042543263506</v>
+        <v>0.1927660380530796</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.697960071872146</v>
+        <v>1.807257171558291</v>
       </c>
       <c r="G20">
-        <v>1.366542313987196</v>
+        <v>1.141553524014</v>
       </c>
       <c r="H20">
-        <v>0.7670038639163863</v>
+        <v>1.056821695874191</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1663651904130674</v>
+        <v>0.2582406164603128</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.08547508168671</v>
+        <v>0.5294849570006832</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.201493878017175</v>
+        <v>1.466687543852004</v>
       </c>
       <c r="C21">
-        <v>0.9765672651901411</v>
+        <v>0.2951664035740578</v>
       </c>
       <c r="D21">
-        <v>0.1257404298006861</v>
+        <v>0.1949002786924297</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.866111588198891</v>
+        <v>1.828648496018076</v>
       </c>
       <c r="G21">
-        <v>1.519347814894957</v>
+        <v>1.164171079959374</v>
       </c>
       <c r="H21">
-        <v>0.8267521528439659</v>
+        <v>1.060176024679322</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.178749596864705</v>
+        <v>0.2590104866471421</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.229599302041223</v>
+        <v>0.56631339685336</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.530338502459472</v>
+        <v>1.555480870918473</v>
       </c>
       <c r="C22">
-        <v>1.050694168014701</v>
+        <v>0.3161357035396577</v>
       </c>
       <c r="D22">
-        <v>0.1328433738436559</v>
+        <v>0.1963343363985928</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.981807335288138</v>
+        <v>1.843736677643037</v>
       </c>
       <c r="G22">
-        <v>1.624611732143421</v>
+        <v>1.17980330051634</v>
       </c>
       <c r="H22">
-        <v>0.868523676998592</v>
+        <v>1.062963029560564</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1872958792999171</v>
+        <v>0.2596302698741724</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.325320066198202</v>
+        <v>0.590545548138607</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.354368415016722</v>
+        <v>1.508069548555511</v>
       </c>
       <c r="C23">
-        <v>1.01104093937272</v>
+        <v>0.3049452312641279</v>
       </c>
       <c r="D23">
-        <v>0.1290414301982139</v>
+        <v>0.1955653826702815</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.919487679931379</v>
+        <v>1.835582117017239</v>
       </c>
       <c r="G23">
-        <v>1.567897815353035</v>
+        <v>1.171381864318846</v>
       </c>
       <c r="H23">
-        <v>0.8459623936309697</v>
+        <v>1.061420977500205</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1826903030190792</v>
+        <v>0.2592887908213442</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.274078788035695</v>
+        <v>0.577597536560404</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.697247590739039</v>
+        <v>1.328962078709026</v>
       </c>
       <c r="C24">
-        <v>0.8626809569802845</v>
+        <v>0.2625364832940136</v>
       </c>
       <c r="D24">
-        <v>0.1148694019200676</v>
+        <v>0.1927318208211517</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.69530108738708</v>
+        <v>1.806926162138936</v>
       </c>
       <c r="G24">
-        <v>1.364127631891762</v>
+        <v>1.141198113699204</v>
       </c>
       <c r="H24">
-        <v>0.7660694545153035</v>
+        <v>1.056776877352746</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1661697976189345</v>
+        <v>0.2582299983639373</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.083142338581446</v>
+        <v>0.5288857666314257</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.003968785733321</v>
+        <v>1.136749828668144</v>
       </c>
       <c r="C25">
-        <v>0.7055885028185003</v>
+        <v>0.2167388039821105</v>
       </c>
       <c r="D25">
-        <v>0.09998782521179095</v>
+        <v>0.1898454690732407</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.474703852951208</v>
+        <v>1.780735691266244</v>
       </c>
       <c r="G25">
-        <v>1.163943703179513</v>
+        <v>1.112248426180912</v>
       </c>
       <c r="H25">
-        <v>0.6899390146775204</v>
+        <v>1.054305360844637</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1500279890348892</v>
+        <v>0.257586882418984</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8824991104517679</v>
+        <v>0.4770430060050401</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_186/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_186/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.996049335404507</v>
+        <v>2.502895403494506</v>
       </c>
       <c r="C2">
-        <v>0.1829687567014275</v>
+        <v>0.5915966015576828</v>
       </c>
       <c r="D2">
-        <v>0.1878679431105965</v>
+        <v>0.08930651183724336</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.765463493389589</v>
+        <v>1.326938355979863</v>
       </c>
       <c r="G2">
-        <v>1.093982151336363</v>
+        <v>1.029946273407731</v>
       </c>
       <c r="H2">
-        <v>1.054649141061986</v>
+        <v>0.6409241744430574</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2575401434904663</v>
+        <v>0.1393273778441397</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4394676603794849</v>
+        <v>0.7380976559451611</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9012017778810559</v>
+        <v>2.167449394261666</v>
       </c>
       <c r="C3">
-        <v>0.1600504625861845</v>
+        <v>0.5150218580527905</v>
       </c>
       <c r="D3">
-        <v>0.1866206637211718</v>
+        <v>0.08220848549031956</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.757592780051567</v>
+        <v>1.234381174551061</v>
       </c>
       <c r="G3">
-        <v>1.083478378094483</v>
+        <v>0.9459867261327446</v>
       </c>
       <c r="H3">
-        <v>1.056222366358327</v>
+        <v>0.611404003964779</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2577735803831658</v>
+        <v>0.1327019226400097</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4143720984839732</v>
+        <v>0.6417778632645366</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8432139183692016</v>
+        <v>1.963022388727694</v>
       </c>
       <c r="C4">
-        <v>0.1459627490864364</v>
+        <v>0.4682331424982351</v>
       </c>
       <c r="D4">
-        <v>0.1859009606257871</v>
+        <v>0.07791061822351253</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.753975854694346</v>
+        <v>1.180832187854563</v>
       </c>
       <c r="G4">
-        <v>1.077945592247332</v>
+        <v>0.8973712944688117</v>
       </c>
       <c r="H4">
-        <v>1.05784645235471</v>
+        <v>0.5948980178691272</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2580473444133418</v>
+        <v>0.1289096864712178</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3991453431329219</v>
+        <v>0.5832412360057404</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8196463723957379</v>
+        <v>1.880036193845967</v>
       </c>
       <c r="C5">
-        <v>0.1402180414634984</v>
+        <v>0.4492096466528324</v>
       </c>
       <c r="D5">
-        <v>0.1856193327121929</v>
+        <v>0.07617316948876862</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.752806690648669</v>
+        <v>1.15977285801101</v>
       </c>
       <c r="G5">
-        <v>1.075920273241223</v>
+        <v>0.8782377603189531</v>
       </c>
       <c r="H5">
-        <v>1.058673376029972</v>
+        <v>0.5885509819873533</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2581916641827746</v>
+        <v>0.1274291425658305</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3929861922182809</v>
+        <v>0.5595179315022705</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8157368148755779</v>
+        <v>1.866273822641318</v>
       </c>
       <c r="C6">
-        <v>0.1392639082839366</v>
+        <v>0.4460530311371542</v>
       </c>
       <c r="D6">
-        <v>0.1855732743477461</v>
+        <v>0.07588547753551467</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.7526309312602</v>
+        <v>1.156320259805781</v>
       </c>
       <c r="G6">
-        <v>1.075597788454772</v>
+        <v>0.8750998868019195</v>
       </c>
       <c r="H6">
-        <v>1.058820645930936</v>
+        <v>0.5875191893343441</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2582176057653456</v>
+        <v>0.1271870879157433</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.39196624391478</v>
+        <v>0.5555860116206048</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8428958226820669</v>
+        <v>1.961901999665002</v>
       </c>
       <c r="C7">
-        <v>0.1458852893734388</v>
+        <v>0.4679764276305036</v>
       </c>
       <c r="D7">
-        <v>0.1858971152181255</v>
+        <v>0.07788713135708036</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.753958854224948</v>
+        <v>1.180545167645946</v>
       </c>
       <c r="G7">
-        <v>1.077917351034927</v>
+        <v>0.8971105862349447</v>
       </c>
       <c r="H7">
-        <v>1.057856936602221</v>
+        <v>0.594810919318661</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2580491581737192</v>
+        <v>0.1288894626353994</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3990620927772</v>
+        <v>0.5829207921340611</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9632944265005676</v>
+        <v>2.386872134759699</v>
       </c>
       <c r="C8">
-        <v>0.1750698690751449</v>
+        <v>0.5651372990099048</v>
       </c>
       <c r="D8">
-        <v>0.1874283397786911</v>
+        <v>0.08684582667250851</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.762496773407918</v>
+        <v>1.294304313735338</v>
       </c>
       <c r="G8">
-        <v>1.090169520924206</v>
+        <v>1.000349754793646</v>
       </c>
       <c r="H8">
-        <v>1.055054756652325</v>
+        <v>0.6303920262504903</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2575935366278728</v>
+        <v>0.1369828427636719</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4307769845183032</v>
+        <v>0.7047480025305575</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.201367543761194</v>
+        <v>3.235796253428248</v>
       </c>
       <c r="C9">
-        <v>0.2321733053422008</v>
+        <v>0.7581924734630263</v>
       </c>
       <c r="D9">
-        <v>0.1907948997231728</v>
+        <v>0.1049533401995149</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.788931703733311</v>
+        <v>1.546511633145002</v>
       </c>
       <c r="G9">
-        <v>1.12152293348305</v>
+        <v>1.229078966453841</v>
       </c>
       <c r="H9">
-        <v>1.054800549551487</v>
+        <v>0.7143906092399845</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2577370685218838</v>
+        <v>0.1552652665410719</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4944133442555199</v>
+        <v>0.9494917218545638</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.377497620503902</v>
+        <v>3.874178843433981</v>
       </c>
       <c r="C10">
-        <v>0.2740512108289295</v>
+        <v>0.902674150271082</v>
       </c>
       <c r="D10">
-        <v>0.1934875938347034</v>
+        <v>0.1186803982217697</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.814330436216977</v>
+        <v>1.75429512608946</v>
       </c>
       <c r="G10">
-        <v>1.149104206321567</v>
+        <v>1.417712945213111</v>
       </c>
       <c r="H10">
-        <v>1.057836773893229</v>
+        <v>0.7868810116634393</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2584780024960978</v>
+        <v>0.1705084610498204</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5420518457471104</v>
+        <v>1.134485217445167</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.457893145323396</v>
+        <v>4.169089438930314</v>
       </c>
       <c r="C11">
-        <v>0.2930868018417243</v>
+        <v>0.9692569005084124</v>
       </c>
       <c r="D11">
-        <v>0.1947596920133208</v>
+        <v>0.1250409888449298</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.827197921082387</v>
+        <v>1.854890390644684</v>
       </c>
       <c r="G11">
-        <v>1.162656067776538</v>
+        <v>1.509144062949417</v>
       </c>
       <c r="H11">
-        <v>1.059924053698467</v>
+        <v>0.8227275810567107</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2589538081555887</v>
+        <v>0.1779216563550037</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5639174779473706</v>
+        <v>1.220175565742835</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.488376124515923</v>
+        <v>4.281534422514994</v>
       </c>
       <c r="C12">
-        <v>0.3002929185513779</v>
+        <v>0.9946195964291462</v>
       </c>
       <c r="D12">
-        <v>0.195248138777373</v>
+        <v>0.1274684885039221</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.832260514456195</v>
+        <v>1.893968085895267</v>
       </c>
       <c r="G12">
-        <v>1.167933649102338</v>
+        <v>1.544682794937728</v>
       </c>
       <c r="H12">
-        <v>1.060816462066015</v>
+        <v>0.8367643133320257</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2591539902977402</v>
+        <v>0.1808057315422573</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5722254263587132</v>
+        <v>1.252883126144198</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.481809342697886</v>
+        <v>4.257281127075203</v>
       </c>
       <c r="C13">
-        <v>0.298741054053977</v>
+        <v>0.9891502017970311</v>
       </c>
       <c r="D13">
-        <v>0.1951426445137372</v>
+        <v>0.1269448057459641</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.831161728786725</v>
+        <v>1.885506318298695</v>
       </c>
       <c r="G13">
-        <v>1.166790523464812</v>
+        <v>1.536986322015338</v>
       </c>
       <c r="H13">
-        <v>1.060619721985603</v>
+        <v>0.8337198344917454</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2591099869248197</v>
+        <v>0.1801810394370165</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5704349210151634</v>
+        <v>1.245826827127914</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.460400219771884</v>
+        <v>4.178324209461266</v>
       </c>
       <c r="C14">
-        <v>0.2936796990651658</v>
+        <v>0.9713403539201124</v>
       </c>
       <c r="D14">
-        <v>0.1947997422303018</v>
+        <v>0.1252403088664238</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.827610610478573</v>
+        <v>1.858084925500705</v>
       </c>
       <c r="G14">
-        <v>1.163087328537841</v>
+        <v>1.512048843567641</v>
       </c>
       <c r="H14">
-        <v>1.059995425743438</v>
+        <v>0.8238728194351665</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2589698760299441</v>
+        <v>0.1781573417215085</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5646004189825504</v>
+        <v>1.222861025434838</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.447291575443217</v>
+        <v>4.130064740552712</v>
       </c>
       <c r="C15">
-        <v>0.2905791770464532</v>
+        <v>0.9604515674294305</v>
       </c>
       <c r="D15">
-        <v>0.1945905796591774</v>
+        <v>0.1241987834438021</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.82546021801204</v>
+        <v>1.841420244135875</v>
       </c>
       <c r="G15">
-        <v>1.160838037968375</v>
+        <v>1.496896573502227</v>
       </c>
       <c r="H15">
-        <v>1.059626323671722</v>
+        <v>0.8179030280707025</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2588866608578471</v>
+        <v>0.1769280296317106</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5610302501912372</v>
+        <v>1.208828659554726</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.372249050133348</v>
+        <v>3.855006447340145</v>
       </c>
       <c r="C16">
-        <v>0.2728068813363507</v>
+        <v>0.8983422151081015</v>
       </c>
       <c r="D16">
-        <v>0.1934054039881659</v>
+        <v>0.1182672362713006</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.813516038497994</v>
+        <v>1.74785242280177</v>
       </c>
       <c r="G16">
-        <v>1.148238891781233</v>
+        <v>1.411859728230468</v>
       </c>
       <c r="H16">
-        <v>1.057714613325118</v>
+        <v>0.784600232820452</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.258449703987587</v>
+        <v>0.1700342923917617</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5406267848281061</v>
+        <v>1.128919180281315</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.326282590008532</v>
+        <v>3.687503194016585</v>
       </c>
       <c r="C17">
-        <v>0.2619002633106788</v>
+        <v>0.860477278149574</v>
       </c>
       <c r="D17">
-        <v>0.192690382297755</v>
+        <v>0.1146596393764341</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.806525850451777</v>
+        <v>1.692082433843552</v>
       </c>
       <c r="G17">
-        <v>1.14076802954591</v>
+        <v>1.361204766051628</v>
       </c>
       <c r="H17">
-        <v>1.056723017644117</v>
+        <v>0.7649388390827028</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2582172198235853</v>
+        <v>0.1659332994145686</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5281597117199013</v>
+        <v>1.080316172716365</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.299869618627326</v>
+        <v>3.591576020393745</v>
       </c>
       <c r="C18">
-        <v>0.2556256707910336</v>
+        <v>0.8387773404199663</v>
       </c>
       <c r="D18">
-        <v>0.1922835644952201</v>
+        <v>0.1125954267364619</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.802628844740028</v>
+        <v>1.660569346541493</v>
       </c>
       <c r="G18">
-        <v>1.136565506798746</v>
+        <v>1.332591305557116</v>
       </c>
       <c r="H18">
-        <v>1.05621911018531</v>
+        <v>0.7538970127513949</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2580965578075691</v>
+        <v>0.1636190752787599</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5210073057445541</v>
+        <v>1.052503087900391</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.29093106830868</v>
+        <v>3.559164760254475</v>
       </c>
       <c r="C19">
-        <v>0.2535009655327372</v>
+        <v>0.8314429342996732</v>
       </c>
       <c r="D19">
-        <v>0.1921465878391828</v>
+        <v>0.111898308712604</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.801330575224455</v>
+        <v>1.649993292980085</v>
       </c>
       <c r="G19">
-        <v>1.135158800067671</v>
+        <v>1.322989837082446</v>
       </c>
       <c r="H19">
-        <v>1.056059891381494</v>
+        <v>0.7502028534302383</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2580579446331654</v>
+        <v>0.162842942453608</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5185887738424313</v>
+        <v>1.043109377466941</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.331173138610666</v>
+        <v>3.705290287619334</v>
       </c>
       <c r="C20">
-        <v>0.2630614365266126</v>
+        <v>0.8644997132585388</v>
       </c>
       <c r="D20">
-        <v>0.1927660380530796</v>
+        <v>0.1150425432635984</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.807257171558291</v>
+        <v>1.69796007187216</v>
       </c>
       <c r="G20">
-        <v>1.141553524014</v>
+        <v>1.366542313987196</v>
       </c>
       <c r="H20">
-        <v>1.056821695874191</v>
+        <v>0.7670038639164147</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2582406164603128</v>
+        <v>0.1663651904130319</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5294849570006832</v>
+        <v>1.085475081686724</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.466687543852004</v>
+        <v>4.201493878017232</v>
       </c>
       <c r="C21">
-        <v>0.2951664035740578</v>
+        <v>0.9765672651900843</v>
       </c>
       <c r="D21">
-        <v>0.1949002786924297</v>
+        <v>0.1257404298006861</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.828648496018076</v>
+        <v>1.866111588198876</v>
       </c>
       <c r="G21">
-        <v>1.164171079959374</v>
+        <v>1.519347814894957</v>
       </c>
       <c r="H21">
-        <v>1.060176024679322</v>
+        <v>0.8267521528439659</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2590104866471421</v>
+        <v>0.1787495968647406</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.56631339685336</v>
+        <v>1.229599302041194</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.555480870918473</v>
+        <v>4.530338502459529</v>
       </c>
       <c r="C22">
-        <v>0.3161357035396577</v>
+        <v>1.050694168014701</v>
       </c>
       <c r="D22">
-        <v>0.1963343363985928</v>
+        <v>0.1328433738436559</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.843736677643037</v>
+        <v>1.981807335288124</v>
       </c>
       <c r="G22">
-        <v>1.17980330051634</v>
+        <v>1.624611732143421</v>
       </c>
       <c r="H22">
-        <v>1.062963029560564</v>
+        <v>0.8685236769984783</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2596302698741724</v>
+        <v>0.1872958792998531</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.590545548138607</v>
+        <v>1.325320066198202</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.508069548555511</v>
+        <v>4.354368415016722</v>
       </c>
       <c r="C23">
-        <v>0.3049452312641279</v>
+        <v>1.011040939372691</v>
       </c>
       <c r="D23">
-        <v>0.1955653826702815</v>
+        <v>0.1290414301981855</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.835582117017239</v>
+        <v>1.919487679931393</v>
       </c>
       <c r="G23">
-        <v>1.171381864318846</v>
+        <v>1.567897815353092</v>
       </c>
       <c r="H23">
-        <v>1.061420977500205</v>
+        <v>0.8459623936310834</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2592887908213442</v>
+        <v>0.1826903030191076</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.577597536560404</v>
+        <v>1.274078788035695</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.328962078709026</v>
+        <v>3.697247590739209</v>
       </c>
       <c r="C24">
-        <v>0.2625364832940136</v>
+        <v>0.8626809569803413</v>
       </c>
       <c r="D24">
-        <v>0.1927318208211517</v>
+        <v>0.114869401920167</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.806926162138936</v>
+        <v>1.69530108738708</v>
       </c>
       <c r="G24">
-        <v>1.141198113699204</v>
+        <v>1.364127631891677</v>
       </c>
       <c r="H24">
-        <v>1.056776877352746</v>
+        <v>0.7660694545153035</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2582299983639373</v>
+        <v>0.1661697976188918</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5288857666314257</v>
+        <v>1.083142338581446</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.136749828668144</v>
+        <v>3.003968785733321</v>
       </c>
       <c r="C25">
-        <v>0.2167388039821105</v>
+        <v>0.7055885028183013</v>
       </c>
       <c r="D25">
-        <v>0.1898454690732407</v>
+        <v>0.0999878252118549</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.780735691266244</v>
+        <v>1.474703852951222</v>
       </c>
       <c r="G25">
-        <v>1.112248426180912</v>
+        <v>1.163943703179569</v>
       </c>
       <c r="H25">
-        <v>1.054305360844637</v>
+        <v>0.689939014677492</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.257586882418984</v>
+        <v>0.1500279890350171</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4770430060050401</v>
+        <v>0.8824991104517608</v>
       </c>
       <c r="N25">
         <v>0</v>
